--- a/TimeSheet/TimeSheet/InvoiceExcelFiles/GeneralInvoiceApporovalImporter.xlsx
+++ b/TimeSheet/TimeSheet/InvoiceExcelFiles/GeneralInvoiceApporovalImporter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bpatil\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98333840-6C12-4FF3-AA66-C1D5F7E2A5E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ADB40A-C037-42D4-A68A-38CA96B69A3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{79CCC63A-7769-4094-BD32-EE10BF63C03F}"/>
+    <workbookView xWindow="-28800" yWindow="450" windowWidth="28770" windowHeight="17100" xr2:uid="{79CCC63A-7769-4094-BD32-EE10BF63C03F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,20 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
-  <si>
-    <t>Supplier Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="53">
   <si>
     <t>Line</t>
   </si>
   <si>
-    <t>Received Invoice Date</t>
-  </si>
-  <si>
-    <t>Invoice Amount (ex gst)</t>
-  </si>
-  <si>
     <t>Invoice_Date</t>
   </si>
   <si>
@@ -178,6 +169,30 @@
   </si>
   <si>
     <t>InvoiceNumber</t>
+  </si>
+  <si>
+    <t>ReceivedInvoiceDate</t>
+  </si>
+  <si>
+    <t>InvoiceAmount(ex gst)</t>
+  </si>
+  <si>
+    <t>SupplierName</t>
+  </si>
+  <si>
+    <t>02/05/2021</t>
+  </si>
+  <si>
+    <t>04/05/2026</t>
+  </si>
+  <si>
+    <t>05/05/2021</t>
+  </si>
+  <si>
+    <t>06/05/2021</t>
+  </si>
+  <si>
+    <t>12/05/2021</t>
   </si>
 </sst>
 </file>
@@ -187,7 +202,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +235,12 @@
       <color rgb="FF0070C0"/>
       <name val="Calibri Light"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -300,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -314,13 +335,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -332,22 +347,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="8" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,504 +677,505 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="13" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="F1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
-        <v>44318</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="C2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="5">
         <v>204.9</v>
       </c>
-      <c r="E2" s="7">
-        <v>44317</v>
+      <c r="E2" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="J2" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4">
         <v>4</v>
       </c>
-      <c r="C3" s="5">
-        <v>44318</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="C3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="5">
         <v>0.01</v>
       </c>
-      <c r="E3" s="7">
-        <v>44317</v>
+      <c r="E3" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4">
         <v>5</v>
       </c>
-      <c r="C4" s="5">
-        <v>44318</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="C4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="5">
         <v>2153</v>
       </c>
-      <c r="E4" s="7">
-        <v>44317</v>
+      <c r="E4" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="8" t="s">
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8">
+        <v>7</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="9">
+        <v>-3161</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="10">
-        <v>7</v>
-      </c>
-      <c r="C5" s="11">
-        <v>44318</v>
-      </c>
-      <c r="D5" s="12">
-        <v>-3161</v>
-      </c>
-      <c r="E5" s="13">
-        <v>44317</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
         <v>8</v>
       </c>
-      <c r="C6" s="5">
-        <v>44318</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="C6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="5">
         <v>0.02</v>
       </c>
-      <c r="E6" s="7">
-        <v>44317</v>
+      <c r="E6" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="5">
-        <v>44320</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="5">
         <v>1124.26</v>
       </c>
-      <c r="E7" s="7">
-        <v>44316</v>
+      <c r="E7" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="F7" s="4">
         <v>42503562</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="5">
-        <v>44321</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="5">
         <v>4035.8</v>
       </c>
-      <c r="E8" s="7">
-        <v>44317</v>
+      <c r="E8" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="F8" s="4">
         <v>61051711</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="8" t="s">
         <v>23</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="5">
-        <v>44322</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="C9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="5">
         <v>167.91</v>
       </c>
-      <c r="E9" s="7">
-        <v>44321</v>
+      <c r="E9" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="8" t="s">
         <v>23</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="5">
-        <v>44328</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="C10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="5">
         <v>201.97</v>
       </c>
-      <c r="E10" s="7">
-        <v>44324</v>
+      <c r="E10" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="F10" s="4">
         <v>61100801</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4">
         <v>2</v>
       </c>
-      <c r="C11" s="5">
-        <v>44328</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="5">
         <v>30.11</v>
       </c>
-      <c r="E11" s="7">
-        <v>44324</v>
+      <c r="E11" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="F11" s="4">
         <v>61100801</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>23</v>
+      <c r="J11" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4">
         <v>3</v>
       </c>
-      <c r="C12" s="5">
-        <v>44328</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="C12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="5">
         <v>15.94</v>
       </c>
-      <c r="E12" s="7">
-        <v>44324</v>
+      <c r="E12" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="F12" s="4">
         <v>61100801</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
       </c>
-      <c r="C13" s="5">
-        <v>44326</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="C13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="5">
         <v>629.41</v>
       </c>
-      <c r="E13" s="7">
-        <v>44323</v>
+      <c r="E13" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="F13" s="4">
         <v>247730</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
       </c>
-      <c r="C14" s="5">
-        <v>44326</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="C14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="5">
         <v>33.9</v>
       </c>
-      <c r="E14" s="7">
-        <v>44323</v>
+      <c r="E14" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="F14" s="4">
         <v>247730</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>23</v>
+      <c r="J14" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
       </c>
-      <c r="C15" s="5">
-        <v>44326</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="C15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="5">
         <v>598.84</v>
       </c>
-      <c r="E15" s="7">
-        <v>44323</v>
+      <c r="E15" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="F15" s="4">
         <v>247730</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TimeSheet/TimeSheet/InvoiceExcelFiles/GeneralInvoiceApporovalImporter.xlsx
+++ b/TimeSheet/TimeSheet/InvoiceExcelFiles/GeneralInvoiceApporovalImporter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bpatil\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ADB40A-C037-42D4-A68A-38CA96B69A3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13875BA-7020-47BF-AA4F-6E45153AAFC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="450" windowWidth="28770" windowHeight="17100" xr2:uid="{79CCC63A-7769-4094-BD32-EE10BF63C03F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{79CCC63A-7769-4094-BD32-EE10BF63C03F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="62">
   <si>
     <t>Line</t>
   </si>
@@ -193,6 +193,33 @@
   </si>
   <si>
     <t>12/05/2021</t>
+  </si>
+  <si>
+    <t>03/05/2021</t>
+  </si>
+  <si>
+    <t>04/05/2021</t>
+  </si>
+  <si>
+    <t>07/05/2021</t>
+  </si>
+  <si>
+    <t>08/05/2021</t>
+  </si>
+  <si>
+    <t>13/05/2021</t>
+  </si>
+  <si>
+    <t>14/05/2021</t>
+  </si>
+  <si>
+    <t>15/05/2021</t>
+  </si>
+  <si>
+    <t>16/05/2021</t>
+  </si>
+  <si>
+    <t>17/05/2021</t>
   </si>
 </sst>
 </file>
@@ -677,7 +704,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,7 +799,7 @@
         <v>0.01</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>7</v>
@@ -804,7 +831,7 @@
         <v>2153</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>7</v>
@@ -836,7 +863,7 @@
         <v>-3161</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>7</v>
@@ -868,7 +895,7 @@
         <v>0.02</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>7</v>
@@ -1028,7 +1055,7 @@
         <v>30.11</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F11" s="4">
         <v>61100801</v>
@@ -1060,7 +1087,7 @@
         <v>15.94</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F12" s="4">
         <v>61100801</v>
@@ -1092,7 +1119,7 @@
         <v>629.41</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F13" s="4">
         <v>247730</v>
@@ -1124,7 +1151,7 @@
         <v>33.9</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F14" s="4">
         <v>247730</v>
@@ -1156,7 +1183,7 @@
         <v>598.84</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F15" s="4">
         <v>247730</v>
